--- a/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>14456000</v>
+        <v>37717000</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>10544000</v>
+        <v>48283000</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>3800000</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>25000000</v>
+        <v>86000000</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="AH13" t="n">
-        <v>25000000</v>
+        <v>70000000</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>16000000</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>25000000</v>
+        <v>73800000</v>
       </c>
       <c r="AR13" t="inlineStr">
         <is>

--- a/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>25498000</v>
+        <v>23498000</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="AQ2" t="n">
-        <v>132393000</v>
+        <v>130393000</v>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>37717000</v>
+        <v>130992000</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>48283000</v>
+        <v>6996000</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>3800000</v>
+        <v>9600000</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>86000000</v>
+        <v>137988000</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="AH13" t="n">
-        <v>70000000</v>
+        <v>112988000</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>16000000</v>
+        <v>25000000</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>73800000</v>
+        <v>122588000</v>
       </c>
       <c r="AR13" t="inlineStr">
         <is>

--- a/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>130992000</v>
+        <v>141172000</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>6996000</v>
+        <v>21416000</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>9600000</v>
+        <v>8000000</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>137988000</v>
+        <v>162588000</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="AH13" t="n">
-        <v>112988000</v>
+        <v>137588000</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>122588000</v>
+        <v>145588000</v>
       </c>
       <c r="AR13" t="inlineStr">
         <is>

--- a/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:00:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:00:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-19T08:00:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-19T08:00:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>141172000</v>
+        <v>143722000</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>21416000</v>
+        <v>19866000</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>162588000</v>
+        <v>163588000</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>25000000</v>
+        <v>26000000</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>

--- a/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_THANG_SOC_TRANG.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>143722000</v>
+        <v>144057000</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>19866000</v>
+        <v>26531000</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>163588000</v>
+        <v>170588000</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="AH13" t="n">
-        <v>137588000</v>
+        <v>144588000</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>145588000</v>
+        <v>152588000</v>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
